--- a/biology/Zoologie/Adelobasileus/Adelobasileus.xlsx
+++ b/biology/Zoologie/Adelobasileus/Adelobasileus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adelobasileus est un genre éteint de Mammaliaformes qui vivait au Trias supérieur (début du Norien), il y a environ 225 millions d'années. Le genre n'a qu'une seule espèce décrite, Adelobasileus cromptoni. 
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelobasileus n'est connu que par un crâne partiel découvert dans le membre Tecovas de la formation Dockum, dans l'ouest du Texas, aux États-Unis. Le fossile est référencé NMMNH P-12971[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelobasileus n'est connu que par un crâne partiel découvert dans le membre Tecovas de la formation Dockum, dans l'ouest du Texas, aux États-Unis. Le fossile est référencé NMMNH P-12971.
 Son nom de genre est tiré des mots grecs adelos, « invisible » ou « insaisissable », et basileus, « roi ».
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet animal mesurait environ 12 cm de long et était probablement nocturne et insectivore[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet animal mesurait environ 12 cm de long et était probablement nocturne et insectivore.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Histoire évolutive</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelobasileus est daté d'environ 225 millions d'années sur la base de la biostratigraphie[3]. Il est contemporain des premiers représentants des familles de cynodontes les plus dérivées, Tritylodontidae et Tritheledontidae, et précède tous les autres Mammaliaformes connus. Ses caractéristiques crâniennes, en particulier l'emplacement de la cochlée, dans l'oreille interne, suggèrent qu'Adelobasileus est le genre le plus basal des Mammaliaformes[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelobasileus est daté d'environ 225 millions d'années sur la base de la biostratigraphie. Il est contemporain des premiers représentants des familles de cynodontes les plus dérivées, Tritylodontidae et Tritheledontidae, et précède tous les autres Mammaliaformes connus. Ses caractéristiques crâniennes, en particulier l'emplacement de la cochlée, dans l'oreille interne, suggèrent qu'Adelobasileus est le genre le plus basal des Mammaliaformes.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cladogramme ci-dessous montre la position d'Adelobasileus parmi les Mammaliaformes, selon Roger A. Close et al. (2015)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme ci-dessous montre la position d'Adelobasileus parmi les Mammaliaformes, selon Roger A. Close et al. (2015) :
 </t>
         </is>
       </c>
